--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445904666666667</v>
+        <v>1.889766</v>
       </c>
       <c r="H2">
-        <v>4.337714</v>
+        <v>5.669298</v>
       </c>
       <c r="I2">
-        <v>0.008079195386183966</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="J2">
-        <v>0.008079195386183968</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.878011333333333</v>
+        <v>4.191702</v>
       </c>
       <c r="N2">
-        <v>11.634034</v>
+        <v>12.575106</v>
       </c>
       <c r="O2">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504406</v>
       </c>
       <c r="P2">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504407</v>
       </c>
       <c r="Q2">
-        <v>5.607234684252888</v>
+        <v>7.921335921732001</v>
       </c>
       <c r="R2">
-        <v>50.465112158276</v>
+        <v>71.29202329558801</v>
       </c>
       <c r="S2">
-        <v>0.004820522055613277</v>
+        <v>0.01246091770026316</v>
       </c>
       <c r="T2">
-        <v>0.004820522055613278</v>
+        <v>0.01246091770026316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445904666666667</v>
+        <v>1.889766</v>
       </c>
       <c r="H3">
-        <v>4.337714</v>
+        <v>5.669298</v>
       </c>
       <c r="I3">
-        <v>0.008079195386183966</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="J3">
-        <v>0.008079195386183968</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7659946666666665</v>
+        <v>1.788624333333333</v>
       </c>
       <c r="N3">
-        <v>2.297984</v>
+        <v>5.365873</v>
       </c>
       <c r="O3">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273282</v>
       </c>
       <c r="P3">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273283</v>
       </c>
       <c r="Q3">
-        <v>1.107555263175111</v>
+        <v>3.380081451906</v>
       </c>
       <c r="R3">
-        <v>9.967997368575999</v>
+        <v>30.420733067154</v>
       </c>
       <c r="S3">
-        <v>0.0009521617828731134</v>
+        <v>0.005317148169014574</v>
       </c>
       <c r="T3">
-        <v>0.0009521617828731136</v>
+        <v>0.005317148169014576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445904666666667</v>
+        <v>1.889766</v>
       </c>
       <c r="H4">
-        <v>4.337714</v>
+        <v>5.669298</v>
       </c>
       <c r="I4">
-        <v>0.008079195386183966</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="J4">
-        <v>0.008079195386183968</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.106149</v>
       </c>
       <c r="O4">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307936</v>
       </c>
       <c r="P4">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307937</v>
       </c>
       <c r="Q4">
-        <v>0.05116044482066667</v>
+        <v>0.06686559037799999</v>
       </c>
       <c r="R4">
-        <v>0.4604440033860001</v>
+        <v>0.601790313402</v>
       </c>
       <c r="S4">
-        <v>4.39824738075627E-05</v>
+        <v>0.0001051851135859399</v>
       </c>
       <c r="T4">
-        <v>4.39824738075627E-05</v>
+        <v>0.0001051851135859399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.445904666666667</v>
+        <v>1.889766</v>
       </c>
       <c r="H5">
-        <v>4.337714</v>
+        <v>5.669298</v>
       </c>
       <c r="I5">
-        <v>0.008079195386183966</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="J5">
-        <v>0.008079195386183968</v>
+        <v>0.02282384478878274</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.820158333333333</v>
+        <v>1.661956</v>
       </c>
       <c r="N5">
-        <v>5.460475</v>
+        <v>4.985868</v>
       </c>
       <c r="O5">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="P5">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="Q5">
-        <v>2.631775428238889</v>
+        <v>3.140707942296</v>
       </c>
       <c r="R5">
-        <v>23.68597885415</v>
+        <v>28.266371480664</v>
       </c>
       <c r="S5">
-        <v>0.002262529073890012</v>
+        <v>0.004940593805919067</v>
       </c>
       <c r="T5">
-        <v>0.002262529073890012</v>
+        <v>0.004940593805919068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.98490533333334</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H6">
         <v>200.954716</v>
       </c>
       <c r="I6">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046609</v>
       </c>
       <c r="J6">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046608</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.878011333333333</v>
+        <v>4.191702</v>
       </c>
       <c r="N6">
-        <v>11.634034</v>
+        <v>12.575106</v>
       </c>
       <c r="O6">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504406</v>
       </c>
       <c r="P6">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504407</v>
       </c>
       <c r="Q6">
-        <v>259.7682220449271</v>
+        <v>280.780761655544</v>
       </c>
       <c r="R6">
-        <v>2337.913998404344</v>
+        <v>2527.026854899896</v>
       </c>
       <c r="S6">
-        <v>0.2233219250179939</v>
+        <v>0.4416914012203551</v>
       </c>
       <c r="T6">
-        <v>0.2233219250179939</v>
+        <v>0.4416914012203551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.98490533333334</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H7">
         <v>200.954716</v>
       </c>
       <c r="I7">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046609</v>
       </c>
       <c r="J7">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046608</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7659946666666665</v>
+        <v>1.788624333333333</v>
       </c>
       <c r="N7">
-        <v>2.297984</v>
+        <v>5.365873</v>
       </c>
       <c r="O7">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273282</v>
       </c>
       <c r="P7">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273283</v>
       </c>
       <c r="Q7">
-        <v>51.31008023250489</v>
+        <v>119.8108316452298</v>
       </c>
       <c r="R7">
-        <v>461.7907220925439</v>
+        <v>1078.297484807068</v>
       </c>
       <c r="S7">
-        <v>0.04411111490137898</v>
+        <v>0.1884723646974006</v>
       </c>
       <c r="T7">
-        <v>0.04411111490137898</v>
+        <v>0.1884723646974006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.98490533333334</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H8">
         <v>200.954716</v>
       </c>
       <c r="I8">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046609</v>
       </c>
       <c r="J8">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046608</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.106149</v>
       </c>
       <c r="O8">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307936</v>
       </c>
       <c r="P8">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307937</v>
       </c>
       <c r="Q8">
-        <v>2.370126905409334</v>
+        <v>2.370126905409333</v>
       </c>
       <c r="R8">
         <v>21.331142148684</v>
       </c>
       <c r="S8">
-        <v>0.002037590660190183</v>
+        <v>0.00372840599102222</v>
       </c>
       <c r="T8">
-        <v>0.002037590660190183</v>
+        <v>0.00372840599102222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.98490533333334</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H9">
         <v>200.954716</v>
       </c>
       <c r="I9">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046609</v>
       </c>
       <c r="J9">
-        <v>0.3742875658328579</v>
+        <v>0.8090171389046608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.820158333333333</v>
+        <v>1.661956</v>
       </c>
       <c r="N9">
-        <v>5.460475</v>
+        <v>4.985868</v>
       </c>
       <c r="O9">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="P9">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="Q9">
-        <v>121.9231336500111</v>
+        <v>111.3259653281653</v>
       </c>
       <c r="R9">
-        <v>1097.3082028501</v>
+        <v>1001.933687953488</v>
       </c>
       <c r="S9">
-        <v>0.1048169352532948</v>
+        <v>0.1751249669958829</v>
       </c>
       <c r="T9">
-        <v>0.1048169352532948</v>
+        <v>0.1751249669958829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.53540533333334</v>
+        <v>1.255973333333333</v>
       </c>
       <c r="H10">
-        <v>235.606216</v>
+        <v>3.76792</v>
       </c>
       <c r="I10">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="J10">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.878011333333333</v>
+        <v>4.191702</v>
       </c>
       <c r="N10">
-        <v>11.634034</v>
+        <v>12.575106</v>
       </c>
       <c r="O10">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504406</v>
       </c>
       <c r="P10">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504407</v>
       </c>
       <c r="Q10">
-        <v>304.5611919505938</v>
+        <v>5.26466593328</v>
       </c>
       <c r="R10">
-        <v>2741.050727555344</v>
+        <v>47.38199339952</v>
       </c>
       <c r="S10">
-        <v>0.2618303006301443</v>
+        <v>0.008281755699061076</v>
       </c>
       <c r="T10">
-        <v>0.2618303006301443</v>
+        <v>0.008281755699061078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.53540533333334</v>
+        <v>1.255973333333333</v>
       </c>
       <c r="H11">
-        <v>235.606216</v>
+        <v>3.76792</v>
       </c>
       <c r="I11">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="J11">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7659946666666665</v>
+        <v>1.788624333333333</v>
       </c>
       <c r="N11">
-        <v>2.297984</v>
+        <v>5.365873</v>
       </c>
       <c r="O11">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273282</v>
       </c>
       <c r="P11">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273283</v>
       </c>
       <c r="Q11">
-        <v>60.15770162983821</v>
+        <v>2.246464466017777</v>
       </c>
       <c r="R11">
-        <v>541.419314668544</v>
+        <v>20.21818019416</v>
       </c>
       <c r="S11">
-        <v>0.05171738724188545</v>
+        <v>0.003533874728227973</v>
       </c>
       <c r="T11">
-        <v>0.05171738724188545</v>
+        <v>0.003533874728227973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.53540533333334</v>
+        <v>1.255973333333333</v>
       </c>
       <c r="H12">
-        <v>235.606216</v>
+        <v>3.76792</v>
       </c>
       <c r="I12">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="J12">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.106149</v>
       </c>
       <c r="O12">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307936</v>
       </c>
       <c r="P12">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307937</v>
       </c>
       <c r="Q12">
-        <v>2.778818246909334</v>
+        <v>0.04444010445333332</v>
       </c>
       <c r="R12">
-        <v>25.009364222184</v>
+        <v>0.3999609400799999</v>
       </c>
       <c r="S12">
-        <v>0.002388941323498728</v>
+        <v>6.990796623898313E-05</v>
       </c>
       <c r="T12">
-        <v>0.002388941323498728</v>
+        <v>6.990796623898313E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.53540533333334</v>
+        <v>1.255973333333333</v>
       </c>
       <c r="H13">
-        <v>235.606216</v>
+        <v>3.76792</v>
       </c>
       <c r="I13">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="J13">
-        <v>0.4388276067217579</v>
+        <v>0.01516914814789243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.820158333333333</v>
+        <v>1.661956</v>
       </c>
       <c r="N13">
-        <v>5.460475</v>
+        <v>4.985868</v>
       </c>
       <c r="O13">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="P13">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="Q13">
-        <v>142.9468724791778</v>
+        <v>2.087372417173333</v>
       </c>
       <c r="R13">
-        <v>1286.5218523126</v>
+        <v>18.78635175456</v>
       </c>
       <c r="S13">
-        <v>0.1228909775262293</v>
+        <v>0.003283609754364397</v>
       </c>
       <c r="T13">
-        <v>0.1228909775262293</v>
+        <v>0.003283609754364397</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.05517466666667</v>
+        <v>6.683112333333334</v>
       </c>
       <c r="H14">
-        <v>39.165524</v>
+        <v>20.049337</v>
       </c>
       <c r="I14">
-        <v>0.07294762190367493</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="J14">
-        <v>0.07294762190367494</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.878011333333333</v>
+        <v>4.191702</v>
       </c>
       <c r="N14">
-        <v>11.634034</v>
+        <v>12.575106</v>
       </c>
       <c r="O14">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504406</v>
       </c>
       <c r="P14">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504407</v>
       </c>
       <c r="Q14">
-        <v>50.62811531597956</v>
+        <v>28.013615333858</v>
       </c>
       <c r="R14">
-        <v>455.653037843816</v>
+        <v>252.122538004722</v>
       </c>
       <c r="S14">
-        <v>0.04352483180349169</v>
+        <v>0.04406773789309384</v>
       </c>
       <c r="T14">
-        <v>0.0435248318034917</v>
+        <v>0.04406773789309385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.05517466666667</v>
+        <v>6.683112333333334</v>
       </c>
       <c r="H15">
-        <v>39.165524</v>
+        <v>20.049337</v>
       </c>
       <c r="I15">
-        <v>0.07294762190367493</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="J15">
-        <v>0.07294762190367494</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7659946666666665</v>
+        <v>1.788624333333333</v>
       </c>
       <c r="N15">
-        <v>2.297984</v>
+        <v>5.365873</v>
       </c>
       <c r="O15">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273282</v>
       </c>
       <c r="P15">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273283</v>
       </c>
       <c r="Q15">
-        <v>10.00019416706844</v>
+        <v>11.95357734180011</v>
       </c>
       <c r="R15">
-        <v>90.00174750361599</v>
+        <v>107.582196076201</v>
       </c>
       <c r="S15">
-        <v>0.008597135532448593</v>
+        <v>0.01880396753169549</v>
       </c>
       <c r="T15">
-        <v>0.008597135532448594</v>
+        <v>0.01880396753169549</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.05517466666667</v>
+        <v>6.683112333333334</v>
       </c>
       <c r="H16">
-        <v>39.165524</v>
+        <v>20.049337</v>
       </c>
       <c r="I16">
-        <v>0.07294762190367493</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="J16">
-        <v>0.07294762190367494</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1432,22 +1432,22 @@
         <v>0.106149</v>
       </c>
       <c r="O16">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307936</v>
       </c>
       <c r="P16">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307937</v>
       </c>
       <c r="Q16">
-        <v>0.4619312452306668</v>
+        <v>0.2364685636903333</v>
       </c>
       <c r="R16">
-        <v>4.157381207076001</v>
+        <v>2.128217073213</v>
       </c>
       <c r="S16">
-        <v>0.0003971208414131195</v>
+        <v>0.0003719846424844465</v>
       </c>
       <c r="T16">
-        <v>0.0003971208414131196</v>
+        <v>0.0003719846424844465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.05517466666667</v>
+        <v>6.683112333333334</v>
       </c>
       <c r="H17">
-        <v>39.165524</v>
+        <v>20.049337</v>
       </c>
       <c r="I17">
-        <v>0.07294762190367493</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="J17">
-        <v>0.07294762190367494</v>
+        <v>0.08071598208561255</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.820158333333333</v>
+        <v>1.661956</v>
       </c>
       <c r="N17">
-        <v>5.460475</v>
+        <v>4.985868</v>
       </c>
       <c r="O17">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="P17">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="Q17">
-        <v>23.76248496265556</v>
+        <v>11.10703864105733</v>
       </c>
       <c r="R17">
-        <v>213.8623646639</v>
+        <v>99.96334776951601</v>
       </c>
       <c r="S17">
-        <v>0.02042853372632152</v>
+        <v>0.01747229201833877</v>
       </c>
       <c r="T17">
-        <v>0.02042853372632153</v>
+        <v>0.01747229201833878</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.945029</v>
+        <v>5.984124666666666</v>
       </c>
       <c r="H18">
-        <v>56.835087</v>
+        <v>17.952374</v>
       </c>
       <c r="I18">
-        <v>0.1058580101555253</v>
+        <v>0.07227388607305152</v>
       </c>
       <c r="J18">
-        <v>0.1058580101555253</v>
+        <v>0.0722738860730515</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.878011333333333</v>
+        <v>4.191702</v>
       </c>
       <c r="N18">
-        <v>11.634034</v>
+        <v>12.575106</v>
       </c>
       <c r="O18">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504406</v>
       </c>
       <c r="P18">
-        <v>0.5966586801275698</v>
+        <v>0.5459604994504407</v>
       </c>
       <c r="Q18">
-        <v>73.46903717232867</v>
+        <v>25.083667333516</v>
       </c>
       <c r="R18">
-        <v>661.221334550958</v>
+        <v>225.753006001644</v>
       </c>
       <c r="S18">
-        <v>0.06316110062032662</v>
+        <v>0.03945868693766745</v>
       </c>
       <c r="T18">
-        <v>0.06316110062032662</v>
+        <v>0.03945868693766745</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.945029</v>
+        <v>5.984124666666666</v>
       </c>
       <c r="H19">
-        <v>56.835087</v>
+        <v>17.952374</v>
       </c>
       <c r="I19">
-        <v>0.1058580101555253</v>
+        <v>0.07227388607305152</v>
       </c>
       <c r="J19">
-        <v>0.1058580101555253</v>
+        <v>0.0722738860730515</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7659946666666665</v>
+        <v>1.788624333333333</v>
       </c>
       <c r="N19">
-        <v>2.297984</v>
+        <v>5.365873</v>
       </c>
       <c r="O19">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273282</v>
       </c>
       <c r="P19">
-        <v>0.1178535407747883</v>
+        <v>0.2329646130273283</v>
       </c>
       <c r="Q19">
-        <v>14.51179117384533</v>
+        <v>10.70335099250022</v>
       </c>
       <c r="R19">
-        <v>130.606120564608</v>
+        <v>96.33015893250199</v>
       </c>
       <c r="S19">
-        <v>0.01247574131620215</v>
+        <v>0.01683725790098966</v>
       </c>
       <c r="T19">
-        <v>0.01247574131620216</v>
+        <v>0.01683725790098966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.945029</v>
+        <v>5.984124666666666</v>
       </c>
       <c r="H20">
-        <v>56.835087</v>
+        <v>17.952374</v>
       </c>
       <c r="I20">
-        <v>0.1058580101555253</v>
+        <v>0.07227388607305152</v>
       </c>
       <c r="J20">
-        <v>0.1058580101555253</v>
+        <v>0.0722738860730515</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1680,22 +1680,22 @@
         <v>0.106149</v>
       </c>
       <c r="O20">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307936</v>
       </c>
       <c r="P20">
-        <v>0.005443917581542346</v>
+        <v>0.004608562429307937</v>
       </c>
       <c r="Q20">
-        <v>0.6703319611070001</v>
+        <v>0.2117362830806666</v>
       </c>
       <c r="R20">
-        <v>6.032987649963</v>
+        <v>1.905626547726</v>
       </c>
       <c r="S20">
-        <v>0.0005762822826327525</v>
+        <v>0.0003330787159763473</v>
       </c>
       <c r="T20">
-        <v>0.0005762822826327525</v>
+        <v>0.0003330787159763473</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.945029</v>
+        <v>5.984124666666666</v>
       </c>
       <c r="H21">
-        <v>56.835087</v>
+        <v>17.952374</v>
       </c>
       <c r="I21">
-        <v>0.1058580101555253</v>
+        <v>0.07227388607305152</v>
       </c>
       <c r="J21">
-        <v>0.1058580101555253</v>
+        <v>0.0722738860730515</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.820158333333333</v>
+        <v>1.661956</v>
       </c>
       <c r="N21">
-        <v>5.460475</v>
+        <v>4.985868</v>
       </c>
       <c r="O21">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="P21">
-        <v>0.2800438615160994</v>
+        <v>0.2164663250929232</v>
       </c>
       <c r="Q21">
-        <v>34.48295240959167</v>
+        <v>9.945351894514666</v>
       </c>
       <c r="R21">
-        <v>310.346571686325</v>
+        <v>89.508167050632</v>
       </c>
       <c r="S21">
-        <v>0.02964488593636377</v>
+        <v>0.01564486251841806</v>
       </c>
       <c r="T21">
-        <v>0.02964488593636377</v>
+        <v>0.01564486251841806</v>
       </c>
     </row>
   </sheetData>
